--- a/embarques/excels/lista reservas (1).xlsx
+++ b/embarques/excels/lista reservas (1).xlsx
@@ -5,22 +5,35 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelperez/Desktop/Florida/DAW/Programación/Docker interpetre PHP y MySQL/BaseProgramacionLAMP/public/embarques/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelperez/Desktop/excells/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1AF96-7C32-704B-9E8B-5D15214844DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD959C-1656-E740-9A29-9277DB9764B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="6200" windowWidth="25600" windowHeight="16180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="346">
   <si>
     <t>Exported data</t>
   </si>
@@ -91,377 +104,986 @@
     <t>Factura</t>
   </si>
   <si>
-    <t>23-04-25 14:32:52</t>
+    <t>02-05-25 07:54:41</t>
+  </si>
+  <si>
+    <t>09-05-2025</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>02-05-25 07:56:00</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Anonimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUCERO POR EL JÚCAR </t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>A2, N0, S0, G0</t>
+  </si>
+  <si>
+    <t>No tiene comentarios</t>
+  </si>
+  <si>
+    <t>Confirmada</t>
+  </si>
+  <si>
+    <t>40,00€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>No Facturada</t>
+  </si>
+  <si>
+    <t>02-05-25 08:33:14</t>
+  </si>
+  <si>
+    <t>10-05-2025</t>
+  </si>
+  <si>
+    <t>02-05-25 08:35:22</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>A1, N0, S0, G0</t>
+  </si>
+  <si>
+    <t>20,00€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 08:59:34</t>
+  </si>
+  <si>
+    <t>02-05-2025</t>
+  </si>
+  <si>
+    <t>02-05-25 09:00:01</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>agencia@suaventura.com</t>
+  </si>
+  <si>
+    <t>TREN COFRENTES - HERVIDEROS REGRESO</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>16,00€ Pagada Establecimiento</t>
+  </si>
+  <si>
+    <t>02-05-25 09:11:21</t>
+  </si>
+  <si>
+    <t>02-05-25 09:11:35</t>
+  </si>
+  <si>
+    <t>TREN COFRENTES</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>16,00€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>15-01-25 12:04:26</t>
+  </si>
+  <si>
+    <t>02-05-25 09:40:22</t>
+  </si>
+  <si>
+    <t>hermi@suaventura.com</t>
+  </si>
+  <si>
+    <t>PACK ESPECIAL AGENCIAS</t>
+  </si>
+  <si>
+    <t>A51, N0, S0, G1</t>
+  </si>
+  <si>
+    <t>1938,00€ Pagada T.Bancaria</t>
+  </si>
+  <si>
+    <t>02-05-25 09:49:46</t>
+  </si>
+  <si>
+    <t>03-05-2025</t>
+  </si>
+  <si>
+    <t>02-05-25 09:49:47</t>
+  </si>
+  <si>
+    <t>reservas@balneario.com</t>
+  </si>
+  <si>
+    <t>40,00€ Pagada Establecimiento</t>
+  </si>
+  <si>
+    <t>02-05-25 09:57:54</t>
   </si>
   <si>
     <t>04-05-2025</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>23-04-25 14:33:11</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>agencia@suaventura.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUCERO POR EL JÚCAR </t>
+    <t>02-05-25 09:59:45</t>
+  </si>
+  <si>
+    <t>A4, N0, S0, G0</t>
+  </si>
+  <si>
+    <t>80,00€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 10:05:42</t>
+  </si>
+  <si>
+    <t>02-05-25 10:07:57</t>
+  </si>
+  <si>
+    <t>embarcaderos@suaventura.com</t>
+  </si>
+  <si>
+    <t>aventura@suaventura.com (embarcaderos@suaventura.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUCERO 1 HORA PARTICULARES </t>
   </si>
   <si>
     <t>16:00</t>
   </si>
   <si>
-    <t>A2, N0, S0, G0</t>
-  </si>
-  <si>
-    <t>No tiene comentarios</t>
-  </si>
-  <si>
-    <t>Confirmada</t>
-  </si>
-  <si>
-    <t>40,00€ Pagada T.Crédito</t>
-  </si>
-  <si>
-    <t>No Facturada</t>
-  </si>
-  <si>
-    <t>30-04-25 10:14:43</t>
-  </si>
-  <si>
-    <t>30-04-25 10:20:06</t>
-  </si>
-  <si>
-    <t>A9, N2, S0, G1</t>
-  </si>
-  <si>
-    <t>209,00€ Pagada T.Crédito</t>
-  </si>
-  <si>
-    <t>30-04-25 14:04:27</t>
-  </si>
-  <si>
-    <t>30-04-25 14:05:12</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Anonimo</t>
+    <t>la he puesto por error a las 16:00, la anulo y  la cambio a las 10:00 Miguelijo</t>
+  </si>
+  <si>
+    <t>Anulada</t>
+  </si>
+  <si>
+    <t>36,00€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 10:16:45</t>
+  </si>
+  <si>
+    <t>02-05-25 10:17:49</t>
+  </si>
+  <si>
+    <t>02-05-25 10:20:04</t>
+  </si>
+  <si>
+    <t>02-05-25 10:20:41</t>
+  </si>
+  <si>
+    <t>1º TREN MADERADA</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>02-05-25 10:30:44</t>
+  </si>
+  <si>
+    <t>02-05-25 10:31:04</t>
+  </si>
+  <si>
+    <t>cambio por error de la 071</t>
+  </si>
+  <si>
+    <t>36,00€ Pagada Paypal</t>
+  </si>
+  <si>
+    <t>02-05-25 10:31:32</t>
+  </si>
+  <si>
+    <t>02-05-25 10:33:45</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>02-05-25 10:38:01</t>
+  </si>
+  <si>
+    <t>01-06-2025</t>
+  </si>
+  <si>
+    <t>02-05-25 10:38:31</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sustituye a 265942  cambio del 11/05 al 01/06 amel </t>
+  </si>
+  <si>
+    <t>40,00€ Pagada Paypal</t>
+  </si>
+  <si>
+    <t>02-05-25 10:40:47</t>
+  </si>
+  <si>
+    <t>02-05-25 13:26:53</t>
+  </si>
+  <si>
+    <t>agencia (agencia@suaventura.com)</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>dev web 020525</t>
+  </si>
+  <si>
+    <t>02-05-25 10:41:07</t>
+  </si>
+  <si>
+    <t>02-05-25 10:42:19</t>
+  </si>
+  <si>
+    <t>A6, N2, S0, G0</t>
+  </si>
+  <si>
+    <t>149,00€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 10:51:07</t>
+  </si>
+  <si>
+    <t>02-05-25 10:51:14</t>
+  </si>
+  <si>
+    <t>02-12-24 12:34:43</t>
+  </si>
+  <si>
+    <t>02-05-25 11:10:15</t>
+  </si>
+  <si>
+    <t>DTO. CRUCERO GRUPO  +25 PAX</t>
+  </si>
+  <si>
+    <t>A57, N0, S0, G1</t>
+  </si>
+  <si>
+    <t>ver os</t>
+  </si>
+  <si>
+    <t>1083,00€ Pagada, revisar historico de pagos &lt;div class="text-right"&gt;&lt;b class="importe"&gt;1083,00€ &lt;i class="fa fa-money-bill-alt ico-reserva-cobrada" title="Cobrada total" alt="Cobrada total"&gt;&lt;/i&gt; &lt;span class="estadoPago"&gt;
+Pagada, revisar historico de pagos&lt;/span&gt;
+&lt;b class="metodoPago"&gt;</t>
+  </si>
+  <si>
+    <t>02-05-25 11:32:27</t>
+  </si>
+  <si>
+    <t>02-05-25 11:33:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREN VOLCÁN </t>
+  </si>
+  <si>
+    <t>A3, N0, S0, G0</t>
+  </si>
+  <si>
+    <t>40,50€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 11:55:45</t>
+  </si>
+  <si>
+    <t>02-05-25 11:55:54</t>
+  </si>
+  <si>
+    <t>TREN + CRUCERO</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>52,00€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 11:59:33</t>
+  </si>
+  <si>
+    <t>02-05-25 12:01:59</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>02-05-25 12:03:58</t>
+  </si>
+  <si>
+    <t>02-05-25 12:04:09</t>
+  </si>
+  <si>
+    <t>8,00€ Pagada Establecimiento</t>
+  </si>
+  <si>
+    <t>02-05-25 12:10:16</t>
+  </si>
+  <si>
+    <t>02-05-25 12:10:30</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>02-05-25 12:12:11</t>
+  </si>
+  <si>
+    <t>02-05-25 12:13:16</t>
+  </si>
+  <si>
+    <t>A2, N3, S0, G0</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>83,50€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 12:24:01</t>
+  </si>
+  <si>
+    <t>02-05-25 12:24:10</t>
+  </si>
+  <si>
+    <t>A8, N0, S0, G0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5 efect.
+2 visa.
+1 visa
+</t>
+  </si>
+  <si>
+    <t>160,00€ Pagada Paypal</t>
+  </si>
+  <si>
+    <t>02-05-25 12:52:06</t>
+  </si>
+  <si>
+    <t>17-05-2025</t>
+  </si>
+  <si>
+    <t>02-05-25 12:53:31</t>
+  </si>
+  <si>
+    <t>02-05-25 13:16:50</t>
+  </si>
+  <si>
+    <t>02-05-25 13:18:46</t>
+  </si>
+  <si>
+    <t>02-05-25 13:31:05</t>
+  </si>
+  <si>
+    <t>14-06-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTO. AGENCIAS CRUCERO </t>
+  </si>
+  <si>
+    <t>A60, N0, S0, G0</t>
+  </si>
+  <si>
+    <t>sin confirmar</t>
+  </si>
+  <si>
+    <t>1020,00€ Pdt de pago</t>
+  </si>
+  <si>
+    <t>02-05-25 14:14:30</t>
+  </si>
+  <si>
+    <t>02-05-25 14:16:00</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>02-05-25 14:30:12</t>
+  </si>
+  <si>
+    <t>VIP_SINOA II</t>
+  </si>
+  <si>
+    <t>A14, N0, S0, G0</t>
+  </si>
+  <si>
+    <t>350,00€ Pdt de pago</t>
+  </si>
+  <si>
+    <t>02-05-25 15:00:56</t>
+  </si>
+  <si>
+    <t>02-05-25 15:02:54</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>02-05-25 15:24:02</t>
+  </si>
+  <si>
+    <t>02-05-25 15:25:19</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>02-05-25 15:30:22</t>
+  </si>
+  <si>
+    <t>02-05-25 16:28:54</t>
+  </si>
+  <si>
+    <t>A1, N3, S0, G0</t>
+  </si>
+  <si>
+    <t>reserva duplicada (amel)</t>
+  </si>
+  <si>
+    <t>63,50€ Pdt de pago</t>
+  </si>
+  <si>
+    <t>02-05-25 15:35:07</t>
+  </si>
+  <si>
+    <t>info@cofrentesturismoactivo.com</t>
   </si>
   <si>
     <t>A5, N0, S0, G0</t>
   </si>
   <si>
-    <t>100,00€ Pagada T.Crédito</t>
-  </si>
-  <si>
-    <t>30-04-25 20:31:03</t>
-  </si>
-  <si>
-    <t>30-04-25 20:32:31</t>
-  </si>
-  <si>
-    <t>A3, N1, S0, G0</t>
-  </si>
-  <si>
-    <t>74,50€ Pagada T.Crédito</t>
-  </si>
-  <si>
-    <t>01-05-25 00:21:24</t>
-  </si>
-  <si>
-    <t>01-05-25 00:22:36</t>
-  </si>
-  <si>
-    <t>A3, N0, S0, G0</t>
-  </si>
-  <si>
-    <t>60,00€ Pagada T.Crédito</t>
-  </si>
-  <si>
-    <t>01-05-25 12:50:58</t>
-  </si>
-  <si>
-    <t>01-05-25 12:52:37</t>
-  </si>
-  <si>
-    <t>A2, N0, S0, G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llevamos silla de paseo del bebé </t>
-  </si>
-  <si>
-    <t>01-05-25 14:31:16</t>
-  </si>
-  <si>
-    <t>01-05-25 14:34:51</t>
-  </si>
-  <si>
-    <t>01-05-25 19:54:31</t>
-  </si>
-  <si>
-    <t>01-05-25 19:57:26</t>
-  </si>
-  <si>
-    <t>A7, N0, S0, G0</t>
-  </si>
-  <si>
-    <t>140,00€ Pagada T.Crédito</t>
-  </si>
-  <si>
-    <t>02-05-25 10:41:07</t>
-  </si>
-  <si>
-    <t>02-05-25 10:42:19</t>
-  </si>
-  <si>
-    <t>A6, N2, S0, G0</t>
-  </si>
-  <si>
-    <t>149,00€ Pagada T.Crédito</t>
-  </si>
-  <si>
-    <t>02-05-25 15:24:02</t>
-  </si>
-  <si>
-    <t>02-05-25 15:25:19</t>
-  </si>
-  <si>
-    <t>03-05-25 12:14:04</t>
-  </si>
-  <si>
-    <t>03-05-25 12:15:29</t>
-  </si>
-  <si>
-    <t>03-05-25 13:49:12</t>
-  </si>
-  <si>
-    <t>03-05-25 13:49:21</t>
-  </si>
-  <si>
-    <t>03-05-25 18:00:38</t>
-  </si>
-  <si>
-    <t>03-05-25 18:04:04</t>
-  </si>
-  <si>
-    <t>04-05-25 08:49:16</t>
-  </si>
-  <si>
-    <t>04-05-25 08:52:47</t>
-  </si>
-  <si>
-    <t>04-05-25 10:30:04</t>
-  </si>
-  <si>
-    <t>04-05-25 10:31:16</t>
-  </si>
-  <si>
-    <t>A4, N0, S0, G0</t>
-  </si>
-  <si>
-    <t>80,00€ Pagada T.Crédito</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>lucas.navarro@mail.com</t>
-  </si>
-  <si>
-    <t>+34 600112233</t>
-  </si>
-  <si>
-    <t>carlos alonso</t>
-  </si>
-  <si>
-    <t>pérez</t>
-  </si>
-  <si>
-    <t>martínez</t>
-  </si>
-  <si>
-    <t>calonso@hotmail.com</t>
-  </si>
-  <si>
-    <t>+34 611223344</t>
+    <t>100,00€ Pagada Establecimiento</t>
+  </si>
+  <si>
+    <t>02-05-25 15:38:19</t>
+  </si>
+  <si>
+    <t>160,00€ Pagada Establecimiento</t>
+  </si>
+  <si>
+    <t>02-05-25 15:53:42</t>
+  </si>
+  <si>
+    <t>02-05-25 15:59:40</t>
+  </si>
+  <si>
+    <t>02-05-25 16:16:26</t>
+  </si>
+  <si>
+    <t>02-05-25 16:16:35</t>
+  </si>
+  <si>
+    <t>29-04-25 14:54:49</t>
+  </si>
+  <si>
+    <t>02-05-25 16:47:28</t>
+  </si>
+  <si>
+    <t>CRUCERO DIVULGOTURIA</t>
+  </si>
+  <si>
+    <t>A25, N0, S0, G0</t>
+  </si>
+  <si>
+    <t>efec agencia 020525, vienen 19 se cobran 25</t>
+  </si>
+  <si>
+    <t>325,00€ Pagada Establecimiento</t>
+  </si>
+  <si>
+    <t>02-05-25 17:46:51</t>
+  </si>
+  <si>
+    <t>02-05-25 17:48:49</t>
+  </si>
+  <si>
+    <t>A1, N2, S0, G0</t>
+  </si>
+  <si>
+    <t>49,00€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 18:14:25</t>
+  </si>
+  <si>
+    <t>02-05-25 18:14:50</t>
+  </si>
+  <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Fallo TPV</t>
+  </si>
+  <si>
+    <t>40,00€ Pdt de pago</t>
+  </si>
+  <si>
+    <t>02-05-25 18:16:36</t>
+  </si>
+  <si>
+    <t>02-05-25 18:17:58</t>
+  </si>
+  <si>
+    <t>02-05-25 18:47:09</t>
+  </si>
+  <si>
+    <t>02-05-25 18:48:35</t>
+  </si>
+  <si>
+    <t>A2, N1, S0, G0</t>
+  </si>
+  <si>
+    <t>54,50€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 19:01:50</t>
+  </si>
+  <si>
+    <t>02-05-25 19:02:33</t>
+  </si>
+  <si>
+    <t>63,50€ Pagada T.Crédito</t>
+  </si>
+  <si>
+    <t>02-05-25 19:13:11</t>
+  </si>
+  <si>
+    <t>24-05-2025</t>
+  </si>
+  <si>
+    <t>02-05-25 19:16:42</t>
+  </si>
+  <si>
+    <t>02-05-25 20:01:23</t>
+  </si>
+  <si>
+    <t>02-05-25 20:02:40</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>02-05-25 20:17:41</t>
+  </si>
+  <si>
+    <t>02-05-25 20:23:48</t>
+  </si>
+  <si>
+    <t>02-05-25 21:19:34</t>
+  </si>
+  <si>
+    <t>02-05-25 21:20:32</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>+34 637276216</t>
+  </si>
+  <si>
+    <t>80,00€ Pdt de pago</t>
+  </si>
+  <si>
+    <t>02-05-25 21:25:20</t>
+  </si>
+  <si>
+    <t>02-05-25 21:26:25</t>
+  </si>
+  <si>
+    <t>02-05-25 21:28:37</t>
+  </si>
+  <si>
+    <t>02-05-25 21:29:09</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>laura.martinez@example.com</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>pablo.rodriguez@example.com</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>carmen.lopez@example.com</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>javier.garcia@example.com</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>lucia.torres@example.com</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>andres.ruiz@example.com</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>sara.herrera@example.com</t>
+  </si>
+  <si>
+    <t>Álvaro</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>alvaro.morales@example.com</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Delgado</t>
+  </si>
+  <si>
+    <t>beatriz.vargas@example.com</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>david.navarro@example.com</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>elena.romero@example.com</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Cano</t>
+  </si>
+  <si>
+    <t>hugo.ramos@example.com</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>paula.medina@example.com</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Iglesias</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>marcos.iglesias@example.com</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Domínguez</t>
+  </si>
+  <si>
+    <t>Núñez</t>
+  </si>
+  <si>
+    <t>isabel.dominguez@example.com</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Rubio</t>
+  </si>
+  <si>
+    <t>tomas.sanchez@example.com</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>natalia.gomez@example.com</t>
+  </si>
+  <si>
+    <t>Víctor</t>
+  </si>
+  <si>
+    <t>Ríos</t>
+  </si>
+  <si>
+    <t>victor.delgado@example.com</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>ana.gil@example.com</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Pascual</t>
+  </si>
+  <si>
+    <t>francisco.morales@example.com</t>
+  </si>
+  <si>
+    <t>Nuria</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>nuria.leon@example.com</t>
+  </si>
+  <si>
+    <t>Óscar</t>
+  </si>
+  <si>
+    <t>oscar.cano@example.com</t>
+  </si>
+  <si>
+    <t>Silvia</t>
+  </si>
+  <si>
+    <t>silvia.castro@example.com</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>alejandro.perez@example.com</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>irene.rubio@example.com</t>
+  </si>
+  <si>
+    <t>sergio.ortega@example.com</t>
+  </si>
+  <si>
+    <t>Aitana</t>
+  </si>
+  <si>
+    <t>aitana.nunez@example.com</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>daniel.fernandez@example.com</t>
+  </si>
+  <si>
+    <t>clara.molina@example.com</t>
+  </si>
+  <si>
+    <t>luis.bravo@example.com</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>teresa.serrano@example.com</t>
+  </si>
+  <si>
+    <t>ivan.rios@example.com</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>marta.pascual@example.com</t>
+  </si>
+  <si>
+    <t>Adrián</t>
+  </si>
+  <si>
+    <t>adrian.gil@example.com</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>julia.medina@example.com</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
+    <t>ruben.iglesias@example.com</t>
   </si>
   <si>
     <t>Noelia</t>
   </si>
   <si>
-    <t>Ramírez</t>
-  </si>
-  <si>
-    <t>Soler</t>
-  </si>
-  <si>
-    <t>noeliasoler@mail.com</t>
-  </si>
-  <si>
-    <t>+34 622334455</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Roca</t>
-  </si>
-  <si>
-    <t>daniel.roca@mail.com</t>
-  </si>
-  <si>
-    <t>+34 633445566</t>
-  </si>
-  <si>
-    <t>CAMILA</t>
-  </si>
-  <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>camila.villa@mail.com</t>
-  </si>
-  <si>
-    <t>+34 644556677</t>
-  </si>
-  <si>
-    <t>Raquel</t>
-  </si>
-  <si>
-    <t>Domínguez</t>
-  </si>
-  <si>
-    <t>Llorente</t>
-  </si>
-  <si>
-    <t>raquel.dominguez@mail.com</t>
-  </si>
-  <si>
-    <t>+34 655667788</t>
-  </si>
-  <si>
-    <t>Pilar</t>
-  </si>
-  <si>
-    <t>Sánchez Blasco</t>
-  </si>
-  <si>
-    <t>pilarsb@mail.com</t>
-  </si>
-  <si>
-    <t>+34 666778899</t>
-  </si>
-  <si>
-    <t>Marcos</t>
-  </si>
-  <si>
-    <t>Herrero Ruiz</t>
-  </si>
-  <si>
-    <t>mherrero42@mail.com</t>
-  </si>
-  <si>
-    <t>+34 677889900</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Cano Torres</t>
-  </si>
-  <si>
-    <t>pablo.cano.torres@mail.com</t>
-  </si>
-  <si>
-    <t>+34 688990011</t>
-  </si>
-  <si>
-    <t>Andrés</t>
-  </si>
-  <si>
-    <t>Vidal</t>
-  </si>
-  <si>
-    <t>Ortega</t>
-  </si>
-  <si>
-    <t>andres.vidal@mail.com</t>
-  </si>
-  <si>
-    <t>+34 699001122</t>
-  </si>
-  <si>
-    <t>Tomás</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>Esteban</t>
-  </si>
-  <si>
-    <t>t.moreno@mail.com</t>
-  </si>
-  <si>
-    <t>+34 611112233</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>Rubio</t>
-  </si>
-  <si>
-    <t>irenerubio@mail.com</t>
-  </si>
-  <si>
-    <t>+34 622223344</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Garrido Gómez</t>
-  </si>
-  <si>
-    <t>antoniogarrido@mail.com</t>
-  </si>
-  <si>
-    <t>+34 633334455</t>
-  </si>
-  <si>
-    <t>CLARA</t>
-  </si>
-  <si>
-    <t>León</t>
-  </si>
-  <si>
-    <t>ALBERT</t>
-  </si>
-  <si>
-    <t>clara.leonalbert@mail.com</t>
-  </si>
-  <si>
-    <t>+34 644445566</t>
+    <t>noelia.leon@example.com</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>guillermo.lopez@example.com</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>patricia.delgado@example.com</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
+    <t>raul.vargas@example.com</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>sonia.ortega@example.com</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>mateo.torres@example.com</t>
+  </si>
+  <si>
+    <t>Celia</t>
+  </si>
+  <si>
+    <t>celia.romero@example.com</t>
+  </si>
+  <si>
+    <t>Joaquín</t>
+  </si>
+  <si>
+    <t>joaquin.morales@example.com</t>
+  </si>
+  <si>
+    <t>alicia.navarro@example.com</t>
+  </si>
+  <si>
+    <t>mario.gil@example.com</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>eva.rodriguez@example.com</t>
+  </si>
+  <si>
+    <t>samdssd@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -474,6 +1096,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -495,21 +1124,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -842,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:Q17"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="92" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,48 +1489,47 @@
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" customWidth="1"/>
+    <col min="9" max="9" width="54" customWidth="1"/>
+    <col min="10" max="10" width="47.1640625" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" customWidth="1"/>
     <col min="12" max="12" width="54" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" customWidth="1"/>
     <col min="16" max="16" width="41.83203125" customWidth="1"/>
     <col min="17" max="17" width="17.5" customWidth="1"/>
-    <col min="18" max="18" width="43.1640625" customWidth="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="21" width="32.33203125" customWidth="1"/>
+    <col min="18" max="19" width="54" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="54" customWidth="1"/>
     <col min="22" max="22" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -970,7 +1601,7 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>265262</v>
+        <v>266062</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1006,19 +1637,19 @@
         <v>31</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>86</v>
+        <v>228</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>612345678</v>
       </c>
       <c r="R3" t="s">
         <v>32</v>
@@ -1035,19 +1666,19 @@
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>265886</v>
+        <v>266063</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1065,25 +1696,25 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>91</v>
+        <v>232</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>623456789</v>
       </c>
       <c r="R4" t="s">
         <v>32</v>
@@ -1092,7 +1723,7 @@
         <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s">
         <v>35</v>
@@ -1100,55 +1731,55 @@
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>265918</v>
+        <v>266064</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>96</v>
+        <v>236</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>634567890</v>
       </c>
       <c r="R5" t="s">
         <v>32</v>
@@ -1157,7 +1788,7 @@
         <v>33</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
         <v>35</v>
@@ -1165,53 +1796,55 @@
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>265957</v>
+        <v>266065</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="P6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>100</v>
+        <v>239</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>645678901</v>
       </c>
       <c r="R6" t="s">
         <v>32</v>
@@ -1220,7 +1853,7 @@
         <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
         <v>35</v>
@@ -1228,53 +1861,55 @@
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>265962</v>
+        <v>261155</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="P7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>104</v>
+        <v>243</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>656789012</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
@@ -1283,7 +1918,7 @@
         <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
         <v>35</v>
@@ -1291,28 +1926,28 @@
     </row>
     <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>265980</v>
+        <v>266069</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
@@ -1321,34 +1956,34 @@
         <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>109</v>
+        <v>246</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>667890123</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="V8" t="s">
         <v>35</v>
@@ -1356,28 +1991,28 @@
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>266008</v>
+        <v>266070</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
@@ -1386,23 +2021,25 @@
         <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="P9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>113</v>
+        <v>250</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>678901234</v>
       </c>
       <c r="R9" t="s">
         <v>32</v>
@@ -1411,7 +2048,7 @@
         <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V9" t="s">
         <v>35</v>
@@ -1419,62 +2056,64 @@
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>266052</v>
+        <v>266071</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="P10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="R10" t="s">
-        <v>32</v>
+        <v>254</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>689012345</v>
+      </c>
+      <c r="S10" t="s">
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s">
         <v>35</v>
@@ -1482,28 +2121,28 @@
     </row>
     <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>266078</v>
+        <v>266072</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
         <v>25</v>
@@ -1512,23 +2151,25 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="O11" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="P11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>121</v>
+        <v>258</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>690123456</v>
       </c>
       <c r="R11" t="s">
         <v>32</v>
@@ -1537,7 +2178,7 @@
         <v>33</v>
       </c>
       <c r="U11" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s">
         <v>35</v>
@@ -1545,53 +2186,55 @@
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>266105</v>
+        <v>266073</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
         <v>31</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="O12" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="P12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>117</v>
+        <v>262</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>601234567</v>
       </c>
       <c r="R12" t="s">
         <v>32</v>
@@ -1600,7 +2243,7 @@
         <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
         <v>35</v>
@@ -1608,64 +2251,64 @@
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>266141</v>
+        <v>266074</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
         <v>31</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="R13" t="s">
-        <v>32</v>
+        <v>265</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>611345678</v>
+      </c>
+      <c r="S13" t="s">
+        <v>88</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>
       </c>
       <c r="U13" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="V13" t="s">
         <v>35</v>
@@ -1673,28 +2316,28 @@
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>266158</v>
+        <v>266075</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>25</v>
@@ -1703,25 +2346,25 @@
         <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>131</v>
+        <v>269</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>622456789</v>
       </c>
       <c r="R14" t="s">
         <v>32</v>
@@ -1738,28 +2381,28 @@
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>266167</v>
+        <v>266076</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
         <v>25</v>
@@ -1768,32 +2411,34 @@
         <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O15" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="P15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>135</v>
+        <v>273</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>633567890</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="T15" t="s">
         <v>33</v>
       </c>
       <c r="U15" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="V15" t="s">
         <v>35</v>
@@ -1801,62 +2446,64 @@
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>266175</v>
+        <v>266077</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
         <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="O16" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="P16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>139</v>
+        <v>277</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>644678901</v>
       </c>
       <c r="R16" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="T16" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s">
         <v>35</v>
@@ -1864,19 +2511,19 @@
     </row>
     <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>266179</v>
+        <v>266078</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -1894,25 +2541,25 @@
         <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>144</v>
+        <v>281</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>655789012</v>
       </c>
       <c r="R17" t="s">
         <v>32</v>
@@ -1921,17 +2568,2165 @@
         <v>33</v>
       </c>
       <c r="U17" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="V17" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>266079</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>666890123</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>260642</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>677901234</v>
+      </c>
+      <c r="R19" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" t="s">
+        <v>115</v>
+      </c>
+      <c r="V19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>266084</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>688012345</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" t="s">
+        <v>120</v>
+      </c>
+      <c r="V20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>266086</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>699123456</v>
+      </c>
+      <c r="R21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" t="s">
+        <v>125</v>
+      </c>
+      <c r="V21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>266087</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>600234567</v>
+      </c>
+      <c r="R22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>266090</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>611345679</v>
+      </c>
+      <c r="R23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>266091</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>622456780</v>
+      </c>
+      <c r="R24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" t="s">
+        <v>70</v>
+      </c>
+      <c r="V24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>266092</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>633567891</v>
+      </c>
+      <c r="R25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" t="s">
+        <v>139</v>
+      </c>
+      <c r="V25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>266093</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>644678902</v>
+      </c>
+      <c r="S26" t="s">
+        <v>143</v>
+      </c>
+      <c r="T26" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" t="s">
+        <v>144</v>
+      </c>
+      <c r="V26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>266098</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>655789013</v>
+      </c>
+      <c r="R27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" t="s">
+        <v>70</v>
+      </c>
+      <c r="V27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>266099</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>666890124</v>
+      </c>
+      <c r="R28" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>266100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" t="s">
+        <v>153</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>677901235</v>
+      </c>
+      <c r="R29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" t="s">
+        <v>154</v>
+      </c>
+      <c r="U29" t="s">
+        <v>155</v>
+      </c>
+      <c r="V29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>266102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>688012346</v>
+      </c>
+      <c r="R30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>266103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>699123457</v>
+      </c>
+      <c r="R31" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" t="s">
+        <v>154</v>
+      </c>
+      <c r="U31" t="s">
+        <v>162</v>
+      </c>
+      <c r="V31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>266104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>600234568</v>
+      </c>
+      <c r="R32" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>266105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>611345670</v>
+      </c>
+      <c r="R33" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>266106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>622456781</v>
+      </c>
+      <c r="R34" t="s">
+        <v>172</v>
+      </c>
+      <c r="T34" t="s">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s">
+        <v>173</v>
+      </c>
+      <c r="V34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>266108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>633567892</v>
+      </c>
+      <c r="R35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35" t="s">
+        <v>177</v>
+      </c>
+      <c r="V35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>266109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" t="s">
+        <v>142</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>644678903</v>
+      </c>
+      <c r="R36" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" t="s">
+        <v>179</v>
+      </c>
+      <c r="V36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>266110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>655789014</v>
+      </c>
+      <c r="R37" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>266111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" t="s">
+        <v>176</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>666890125</v>
+      </c>
+      <c r="R38" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" t="s">
+        <v>33</v>
+      </c>
+      <c r="U38" t="s">
+        <v>65</v>
+      </c>
+      <c r="V38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>265831</v>
+      </c>
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>186</v>
+      </c>
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>677901236</v>
+      </c>
+      <c r="R39" t="s">
+        <v>188</v>
+      </c>
+      <c r="T39" t="s">
+        <v>33</v>
+      </c>
+      <c r="U39" t="s">
+        <v>189</v>
+      </c>
+      <c r="V39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>266114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" t="s">
+        <v>192</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>688012347</v>
+      </c>
+      <c r="R40" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" t="s">
+        <v>33</v>
+      </c>
+      <c r="U40" t="s">
+        <v>193</v>
+      </c>
+      <c r="V40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>266115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L41" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>699123458</v>
+      </c>
+      <c r="R41" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" t="s">
+        <v>197</v>
+      </c>
+      <c r="U41" t="s">
+        <v>198</v>
+      </c>
+      <c r="V41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>266116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>600234569</v>
+      </c>
+      <c r="R42" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" t="s">
+        <v>33</v>
+      </c>
+      <c r="U42" t="s">
+        <v>34</v>
+      </c>
+      <c r="V42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>266118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" t="s">
+        <v>203</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>611345671</v>
+      </c>
+      <c r="R43" t="s">
+        <v>32</v>
+      </c>
+      <c r="T43" t="s">
+        <v>33</v>
+      </c>
+      <c r="U43" t="s">
+        <v>204</v>
+      </c>
+      <c r="V43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>266119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
+        <v>92</v>
+      </c>
+      <c r="L44" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>622456782</v>
+      </c>
+      <c r="R44" t="s">
+        <v>32</v>
+      </c>
+      <c r="T44" t="s">
+        <v>33</v>
+      </c>
+      <c r="U44" t="s">
+        <v>207</v>
+      </c>
+      <c r="V44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>266120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>96</v>
+      </c>
+      <c r="L45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>633567893</v>
+      </c>
+      <c r="R45" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" t="s">
+        <v>33</v>
+      </c>
+      <c r="U45" t="s">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>266121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>92</v>
+      </c>
+      <c r="L46" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>644678904</v>
+      </c>
+      <c r="R46" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" t="s">
+        <v>33</v>
+      </c>
+      <c r="U46" t="s">
+        <v>34</v>
+      </c>
+      <c r="V46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>266122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>655789015</v>
+      </c>
+      <c r="R47" t="s">
+        <v>32</v>
+      </c>
+      <c r="T47" t="s">
+        <v>33</v>
+      </c>
+      <c r="U47" t="s">
+        <v>70</v>
+      </c>
+      <c r="V47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>266125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>666890126</v>
+      </c>
+      <c r="R48" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48" t="s">
+        <v>197</v>
+      </c>
+      <c r="U48" t="s">
+        <v>220</v>
+      </c>
+      <c r="V48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>266126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>677901237</v>
+      </c>
+      <c r="R49" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" t="s">
+        <v>197</v>
+      </c>
+      <c r="U49" t="s">
+        <v>220</v>
+      </c>
+      <c r="V49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>266127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M50" t="s">
+        <v>218</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="R50" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" t="s">
+        <v>197</v>
+      </c>
+      <c r="U50" t="s">
+        <v>220</v>
+      </c>
+      <c r="V50" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:V17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:V50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:V1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="P50" r:id="rId1" xr:uid="{315F12EA-EA21-4B47-8511-BE3EA74B7968}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>